--- a/AAA-Luban-Excel/Datas/text_Translate.xlsx
+++ b/AAA-Luban-Excel/Datas/text_Translate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0E1D09-E4D0-4F87-A1B1-D686FBC09BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C98826-63CE-49F6-898C-AB381847D5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="705" windowWidth="12945" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="1935" windowWidth="23730" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>

--- a/AAA-Luban-Excel/Datas/text_Translate.xlsx
+++ b/AAA-Luban-Excel/Datas/text_Translate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="11200"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="242">
   <si>
     <t>##var</t>
   </si>
@@ -783,8 +783,22 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -794,7 +808,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -944,12 +957,66 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1138,12 +1205,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1264,148 +1346,253 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1934,3420 +2121,3423 @@
   <sheetPr/>
   <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="J161" sqref="J161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="33.5727272727273" customWidth="1"/>
-    <col min="4" max="4" width="31.1363636363636" customWidth="1"/>
-    <col min="5" max="5" width="43.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="39.5454545454545" customWidth="1"/>
+    <col min="1" max="2" width="8.70833333333333" style="11"/>
+    <col min="3" max="3" width="33.575" style="11" customWidth="1"/>
+    <col min="4" max="4" width="31.1333333333333" style="11" customWidth="1"/>
+    <col min="5" max="5" width="43.3666666666667" style="11" customWidth="1"/>
+    <col min="6" max="6" width="39.5416666666667" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="70" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
+    <row r="5" ht="67.5" spans="1:6">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12">
         <v>700000</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12">
         <v>700001</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12">
         <v>700002</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12">
         <v>700003</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14">
         <v>702000</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14">
         <v>702001</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14">
         <v>702002</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14">
         <v>702003</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14">
         <v>702004</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:6">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14">
         <v>702005</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14">
         <v>702006</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:6">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14">
         <v>702007</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14">
         <v>702008</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14">
         <v>702009</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:6">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14">
         <v>702010</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:6">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14">
         <v>702011</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14">
         <v>702012</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:6">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16">
         <v>704000</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1">
+    <row r="23" s="2" customFormat="1" spans="1:6">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16">
         <v>704001</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:6">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16">
         <v>704002</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:6">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16">
         <v>704003</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:6">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16">
         <v>704004</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1">
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:6">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16">
         <v>704005</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:6">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16">
         <v>704006</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:6">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18">
         <v>706000</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1">
+    <row r="30" s="3" customFormat="1" spans="1:6">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18">
         <v>706001</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1">
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:6">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18">
         <v>706002</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1">
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:6">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18">
         <v>706003</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:6">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18">
         <v>706004</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1">
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="1:6">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18">
         <v>706005</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1">
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" s="4" customFormat="1" spans="1:6">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21">
         <v>710000</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1">
+    <row r="36" s="4" customFormat="1" spans="1:6">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21">
         <v>710001</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1">
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" s="4" customFormat="1" spans="1:6">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21">
         <v>710002</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1">
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" s="4" customFormat="1" spans="1:6">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21">
         <v>710003</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1">
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" s="4" customFormat="1" spans="1:6">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21">
         <v>710004</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1">
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" s="4" customFormat="1" spans="1:6">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21">
         <v>710005</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" s="4" customFormat="1" spans="1:6">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21">
         <v>710006</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1">
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" s="5" customFormat="1" spans="1:6">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23">
         <v>720000</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1">
+    <row r="43" s="5" customFormat="1" spans="1:6">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23">
         <v>720001</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" ht="42" spans="1:6">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1">
+    <row r="44" s="6" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25">
         <v>730000</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1">
+    <row r="45" s="6" customFormat="1" spans="1:6">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25">
         <v>730001</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1">
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+    </row>
+    <row r="46" s="6" customFormat="1" spans="1:6">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25">
         <v>730002</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1">
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+    </row>
+    <row r="47" s="6" customFormat="1" spans="1:6">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25">
         <v>730003</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1">
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+    </row>
+    <row r="48" s="6" customFormat="1" spans="1:6">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25">
         <v>730004</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1">
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+    </row>
+    <row r="49" s="6" customFormat="1" spans="1:6">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25">
         <v>730005</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1">
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" s="6" customFormat="1" spans="1:6">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25">
         <v>730006</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1">
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51" s="6" customFormat="1" spans="1:6">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25">
         <v>730007</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1">
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+    </row>
+    <row r="52" s="6" customFormat="1" spans="1:6">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25">
         <v>730008</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1">
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+    </row>
+    <row r="53" s="6" customFormat="1" spans="1:6">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25">
         <v>730009</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1">
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+    </row>
+    <row r="54" s="6" customFormat="1" spans="1:6">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25">
         <v>730010</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1">
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+    </row>
+    <row r="55" s="6" customFormat="1" spans="1:6">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25">
         <v>730011</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1">
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+    </row>
+    <row r="56" s="6" customFormat="1" spans="1:6">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25">
         <v>730012</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1">
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+    </row>
+    <row r="57" s="7" customFormat="1" spans="1:6">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27">
         <v>732000</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1">
+    <row r="58" s="7" customFormat="1" spans="1:6">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27">
         <v>732001</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1">
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+    </row>
+    <row r="59" s="7" customFormat="1" spans="1:6">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27">
         <v>732002</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" ht="28" spans="1:6">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1">
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+    </row>
+    <row r="60" s="8" customFormat="1" ht="27" spans="1:6">
+      <c r="A60" s="29"/>
+      <c r="B60" s="29">
         <v>740000</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="61" ht="74" customHeight="1" spans="1:6">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1">
+    <row r="61" s="8" customFormat="1" ht="74" customHeight="1" spans="1:6">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29">
         <v>740001</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" ht="74" customHeight="1" spans="1:6">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1">
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+    </row>
+    <row r="62" s="8" customFormat="1" ht="74" customHeight="1" spans="1:6">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29">
         <v>740002</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" ht="74" customHeight="1" spans="1:6">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1">
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="74" customHeight="1" spans="1:6">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14">
         <v>750000</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1">
+    <row r="64" s="1" customFormat="1" spans="1:6">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14">
         <v>750001</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1">
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:6">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14">
         <v>750002</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1">
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:6">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14">
         <v>750003</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1">
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:6">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14">
         <v>750004</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1">
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:6">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14">
         <v>750005</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1">
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:6">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14">
         <v>750006</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1">
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:6">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14">
         <v>750007</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1">
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:6">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14">
         <v>750008</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1">
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:6">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14">
         <v>750009</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1">
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:6">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14">
         <v>750010</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1">
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:6">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14">
         <v>750011</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1">
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+    </row>
+    <row r="75" s="2" customFormat="1" spans="1:6">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16">
         <v>752000</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1">
+    <row r="76" s="2" customFormat="1" spans="1:6">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16">
         <v>752001</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1">
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" s="2" customFormat="1" spans="1:6">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16">
         <v>752002</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1">
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="1:6">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16">
         <v>752003</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1">
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="1:6">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16">
         <v>752004</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1">
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" s="2" customFormat="1" spans="1:6">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16">
         <v>752005</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1">
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" s="2" customFormat="1" spans="1:6">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16">
         <v>752006</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1">
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" s="2" customFormat="1" spans="1:6">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16">
         <v>752007</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1">
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" s="2" customFormat="1" spans="1:6">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16">
         <v>752008</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1">
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+    </row>
+    <row r="84" s="2" customFormat="1" spans="1:6">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16">
         <v>752009</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1">
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="1:6">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16">
         <v>752010</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1">
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" s="2" customFormat="1" spans="1:6">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16">
         <v>752011</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1">
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+    </row>
+    <row r="87" s="2" customFormat="1" spans="1:6">
+      <c r="A87" s="16"/>
+      <c r="B87" s="16">
         <v>752012</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1">
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+    </row>
+    <row r="88" s="2" customFormat="1" spans="1:6">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16">
         <v>752013</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1">
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" s="2" customFormat="1" spans="1:6">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16">
         <v>752014</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1">
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+    </row>
+    <row r="90" s="2" customFormat="1" spans="1:6">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16">
         <v>752015</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1">
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+    </row>
+    <row r="91" s="2" customFormat="1" spans="1:6">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16">
         <v>752016</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1">
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+    </row>
+    <row r="92" s="2" customFormat="1" spans="1:6">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16">
         <v>752017</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1">
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+    </row>
+    <row r="93" s="2" customFormat="1" spans="1:6">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16">
         <v>752018</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1">
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+    </row>
+    <row r="94" s="2" customFormat="1" spans="1:6">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16">
         <v>752019</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1">
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+    </row>
+    <row r="95" s="2" customFormat="1" spans="1:6">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16">
         <v>752020</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1">
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+    </row>
+    <row r="96" s="2" customFormat="1" spans="1:6">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16">
         <v>752021</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1">
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+    </row>
+    <row r="97" s="2" customFormat="1" spans="1:6">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16">
         <v>752022</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1">
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+    </row>
+    <row r="98" s="2" customFormat="1" spans="1:6">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16">
         <v>752023</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1">
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+    </row>
+    <row r="99" s="2" customFormat="1" spans="1:6">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16">
         <v>752024</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1">
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+    </row>
+    <row r="100" s="2" customFormat="1" spans="1:6">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16">
         <v>752025</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1">
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+    </row>
+    <row r="101" s="2" customFormat="1" spans="1:6">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16">
         <v>752026</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1">
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+    </row>
+    <row r="102" s="2" customFormat="1" spans="1:6">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16">
         <v>752027</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1">
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+    </row>
+    <row r="103" s="2" customFormat="1" spans="1:6">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16">
         <v>752028</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1">
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+    </row>
+    <row r="104" s="2" customFormat="1" spans="1:6">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16">
         <v>752029</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1">
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+    </row>
+    <row r="105" s="2" customFormat="1" spans="1:6">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16">
         <v>752030</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1">
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+    </row>
+    <row r="106" s="2" customFormat="1" spans="1:6">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16">
         <v>752031</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1">
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+    </row>
+    <row r="107" s="2" customFormat="1" spans="1:6">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16">
         <v>752032</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1">
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+    </row>
+    <row r="108" s="2" customFormat="1" spans="1:6">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16">
         <v>752033</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1">
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+    </row>
+    <row r="109" s="2" customFormat="1" spans="1:6">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16">
         <v>752034</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1">
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+    </row>
+    <row r="110" s="2" customFormat="1" spans="1:6">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16">
         <v>752035</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1">
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+    </row>
+    <row r="111" s="2" customFormat="1" spans="1:6">
+      <c r="A111" s="16"/>
+      <c r="B111" s="16">
         <v>752036</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1">
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+    </row>
+    <row r="112" s="2" customFormat="1" spans="1:6">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16">
         <v>752037</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1">
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+    </row>
+    <row r="113" s="2" customFormat="1" spans="1:6">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16">
         <v>752038</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1">
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+    </row>
+    <row r="114" s="2" customFormat="1" spans="1:6">
+      <c r="A114" s="16"/>
+      <c r="B114" s="16">
         <v>752039</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1">
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+    </row>
+    <row r="115" s="2" customFormat="1" spans="1:6">
+      <c r="A115" s="16"/>
+      <c r="B115" s="16">
         <v>752040</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1">
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+    </row>
+    <row r="116" s="2" customFormat="1" spans="1:6">
+      <c r="A116" s="16"/>
+      <c r="B116" s="16">
         <v>752041</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1">
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+    </row>
+    <row r="117" s="2" customFormat="1" spans="1:6">
+      <c r="A117" s="16"/>
+      <c r="B117" s="16">
         <v>752042</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1">
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+    </row>
+    <row r="118" s="2" customFormat="1" spans="1:6">
+      <c r="A118" s="16"/>
+      <c r="B118" s="16">
         <v>752043</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1">
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+    </row>
+    <row r="119" s="2" customFormat="1" spans="1:6">
+      <c r="A119" s="16"/>
+      <c r="B119" s="16">
         <v>752044</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1">
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+    </row>
+    <row r="120" s="2" customFormat="1" spans="1:6">
+      <c r="A120" s="16"/>
+      <c r="B120" s="16">
         <v>752045</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1">
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+    </row>
+    <row r="121" s="2" customFormat="1" spans="1:6">
+      <c r="A121" s="16"/>
+      <c r="B121" s="16">
         <v>752046</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1">
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+    </row>
+    <row r="122" s="3" customFormat="1" spans="1:6">
+      <c r="A122" s="18"/>
+      <c r="B122" s="18">
         <v>760000</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="F122" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1">
+    <row r="123" s="3" customFormat="1" spans="1:6">
+      <c r="A123" s="18"/>
+      <c r="B123" s="18">
         <v>760001</v>
       </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" ht="70" spans="1:7">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1">
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+    </row>
+    <row r="124" s="4" customFormat="1" ht="67.5" spans="1:7">
+      <c r="A124" s="21"/>
+      <c r="B124" s="21">
         <v>800000</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="F124" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G124" s="2"/>
-    </row>
-    <row r="125" ht="56" spans="1:6">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1">
+      <c r="G124" s="32"/>
+    </row>
+    <row r="125" s="4" customFormat="1" ht="54" spans="1:6">
+      <c r="A125" s="21"/>
+      <c r="B125" s="21">
         <v>800001</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1">
+      <c r="F125" s="21"/>
+    </row>
+    <row r="126" s="4" customFormat="1" spans="1:6">
+      <c r="A126" s="21"/>
+      <c r="B126" s="21">
         <v>800002</v>
       </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1">
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+    </row>
+    <row r="127" s="4" customFormat="1" spans="1:6">
+      <c r="A127" s="21"/>
+      <c r="B127" s="21">
         <v>800003</v>
       </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1">
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+    </row>
+    <row r="128" s="9" customFormat="1" spans="1:6">
+      <c r="A128" s="33"/>
+      <c r="B128" s="33">
         <v>802000</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F128" s="34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1">
+    <row r="129" s="9" customFormat="1" spans="1:6">
+      <c r="A129" s="33"/>
+      <c r="B129" s="33">
         <v>802001</v>
       </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1">
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
+    </row>
+    <row r="130" s="9" customFormat="1" spans="1:6">
+      <c r="A130" s="33"/>
+      <c r="B130" s="33">
         <v>802002</v>
       </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1">
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
+    </row>
+    <row r="131" s="9" customFormat="1" spans="1:6">
+      <c r="A131" s="33"/>
+      <c r="B131" s="33">
         <v>802003</v>
       </c>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1">
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+    </row>
+    <row r="132" s="9" customFormat="1" spans="1:6">
+      <c r="A132" s="33"/>
+      <c r="B132" s="33">
         <v>802004</v>
       </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1">
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33"/>
+    </row>
+    <row r="133" s="9" customFormat="1" spans="1:6">
+      <c r="A133" s="33"/>
+      <c r="B133" s="33">
         <v>802005</v>
       </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1">
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+    </row>
+    <row r="134" s="9" customFormat="1" spans="1:6">
+      <c r="A134" s="33"/>
+      <c r="B134" s="33">
         <v>802006</v>
       </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1">
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="33"/>
+    </row>
+    <row r="135" s="9" customFormat="1" spans="1:6">
+      <c r="A135" s="33"/>
+      <c r="B135" s="33">
         <v>802007</v>
       </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1">
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+    </row>
+    <row r="136" s="9" customFormat="1" spans="1:6">
+      <c r="A136" s="33"/>
+      <c r="B136" s="33">
         <v>802008</v>
       </c>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1">
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
+    </row>
+    <row r="137" s="9" customFormat="1" spans="1:6">
+      <c r="A137" s="33"/>
+      <c r="B137" s="33">
         <v>802009</v>
       </c>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1">
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+    </row>
+    <row r="138" s="9" customFormat="1" spans="1:6">
+      <c r="A138" s="33"/>
+      <c r="B138" s="33">
         <v>802010</v>
       </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1">
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
+    </row>
+    <row r="139" s="9" customFormat="1" spans="1:6">
+      <c r="A139" s="33"/>
+      <c r="B139" s="33">
         <v>802011</v>
       </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1">
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
+    </row>
+    <row r="140" s="9" customFormat="1" spans="1:6">
+      <c r="A140" s="33"/>
+      <c r="B140" s="33">
         <v>802012</v>
       </c>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1">
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
+    </row>
+    <row r="141" s="10" customFormat="1" spans="1:6">
+      <c r="A141" s="35"/>
+      <c r="B141" s="35">
         <v>804000</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="F141" s="36" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="142" ht="84" spans="1:6">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1">
+    <row r="142" s="10" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A142" s="35"/>
+      <c r="B142" s="35">
         <v>804001</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-    </row>
-    <row r="143" ht="112" spans="1:6">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1">
+      <c r="D142" s="35"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="35"/>
+    </row>
+    <row r="143" s="10" customFormat="1" ht="94.5" spans="1:6">
+      <c r="A143" s="35"/>
+      <c r="B143" s="35">
         <v>804002</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-    </row>
-    <row r="144" ht="98" spans="1:6">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1">
+      <c r="D143" s="35"/>
+      <c r="E143" s="35"/>
+      <c r="F143" s="35"/>
+    </row>
+    <row r="144" s="10" customFormat="1" ht="81" spans="1:6">
+      <c r="A144" s="35"/>
+      <c r="B144" s="35">
         <v>804003</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1" t="s">
+      <c r="D144" s="35"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="37" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1">
+    <row r="145" s="10" customFormat="1" spans="1:6">
+      <c r="A145" s="35"/>
+      <c r="B145" s="35">
         <v>804004</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" ht="28" spans="1:6">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1">
+      <c r="D145" s="35"/>
+      <c r="E145" s="35"/>
+      <c r="F145" s="35"/>
+    </row>
+    <row r="146" s="10" customFormat="1" ht="27" spans="1:6">
+      <c r="A146" s="35"/>
+      <c r="B146" s="35">
         <v>804005</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1" t="s">
+      <c r="D146" s="35"/>
+      <c r="E146" s="35"/>
+      <c r="F146" s="37" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="147" ht="42" spans="1:6">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1">
+    <row r="147" s="10" customFormat="1" ht="27" spans="1:6">
+      <c r="A147" s="35"/>
+      <c r="B147" s="35">
         <v>804006</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1">
+      <c r="D147" s="35"/>
+      <c r="E147" s="35"/>
+      <c r="F147" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1">
+      <c r="A148" s="12"/>
+      <c r="B148" s="12">
         <v>806000</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="F148" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1">
+      <c r="A149" s="12"/>
+      <c r="B149" s="12">
         <v>806001</v>
       </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1">
+      <c r="A150" s="12"/>
+      <c r="B150" s="12">
         <v>806002</v>
       </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1">
+      <c r="A151" s="12"/>
+      <c r="B151" s="12">
         <v>806003</v>
       </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1">
+      <c r="A152" s="12"/>
+      <c r="B152" s="12">
         <v>806004</v>
       </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1">
+      <c r="A153" s="12"/>
+      <c r="B153" s="12">
         <v>806005</v>
       </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1">
+      <c r="A154" s="12"/>
+      <c r="B154" s="12">
         <v>806006</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1">
+      <c r="A155" s="12"/>
+      <c r="B155" s="12">
         <v>810000</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="F155" s="13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1">
+      <c r="A156" s="12"/>
+      <c r="B156" s="12">
         <v>810001</v>
       </c>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1">
+      <c r="A157" s="12"/>
+      <c r="B157" s="12">
         <f>710002+100000</f>
         <v>810002</v>
       </c>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1">
+      <c r="A158" s="12"/>
+      <c r="B158" s="12">
         <f>100000+710003</f>
         <v>810003</v>
       </c>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1">
+      <c r="A159" s="12"/>
+      <c r="B159" s="12">
         <v>810004</v>
       </c>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1">
+      <c r="A160" s="12"/>
+      <c r="B160" s="12">
         <v>810005</v>
       </c>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1">
+      <c r="A161" s="12"/>
+      <c r="B161" s="12">
         <v>810006</v>
       </c>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-    </row>
-    <row r="162" ht="28" spans="1:7">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1">
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="12"/>
+      <c r="B162" s="12">
         <v>820000</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F162" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G162" s="1"/>
+      <c r="G162" s="38"/>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1">
+      <c r="A163" s="12"/>
+      <c r="B163" s="12">
         <v>820001</v>
       </c>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-    </row>
-    <row r="164" ht="42" spans="1:7">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1">
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="38"/>
+    </row>
+    <row r="164" ht="40.5" spans="1:7">
+      <c r="A164" s="12"/>
+      <c r="B164" s="12">
         <v>830000</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="F164" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="G164" s="1"/>
+      <c r="G164" s="38"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1">
+      <c r="A165" s="12"/>
+      <c r="B165" s="12">
         <v>830001</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1">
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12">
         <v>2</v>
       </c>
-      <c r="G165" s="1"/>
+      <c r="G165" s="38"/>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1">
+      <c r="A166" s="12"/>
+      <c r="B166" s="12">
         <v>830002</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-    </row>
-    <row r="167" ht="28" spans="1:7">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1">
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="38"/>
+    </row>
+    <row r="167" ht="27" spans="1:7">
+      <c r="A167" s="12"/>
+      <c r="B167" s="12">
         <v>830003</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-    </row>
-    <row r="168" ht="28" spans="1:7">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1">
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="38"/>
+    </row>
+    <row r="168" ht="27" spans="1:7">
+      <c r="A168" s="12"/>
+      <c r="B168" s="12">
         <v>830004</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-    </row>
-    <row r="169" ht="28" spans="1:7">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1">
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="38"/>
+    </row>
+    <row r="169" ht="27" spans="1:7">
+      <c r="A169" s="12"/>
+      <c r="B169" s="12">
         <v>830005</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1">
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12">
         <v>20</v>
       </c>
-      <c r="G169" s="1"/>
+      <c r="G169" s="38"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1">
+      <c r="A170" s="12"/>
+      <c r="B170" s="12">
         <v>830006</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-    </row>
-    <row r="171" ht="28" spans="1:7">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1">
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="38"/>
+    </row>
+    <row r="171" ht="27" spans="1:7">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12">
         <v>830007</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-    </row>
-    <row r="172" ht="28" spans="1:7">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1">
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="38"/>
+    </row>
+    <row r="172" ht="27" spans="1:7">
+      <c r="A172" s="12"/>
+      <c r="B172" s="12">
         <v>830008</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1" t="s">
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G172" s="1"/>
+      <c r="G172" s="38"/>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1">
+      <c r="A173" s="12"/>
+      <c r="B173" s="12">
         <v>830009</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1">
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12">
         <v>0.5</v>
       </c>
-      <c r="G173" s="1"/>
+      <c r="G173" s="38"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1">
+      <c r="A174" s="12"/>
+      <c r="B174" s="12">
         <v>830010</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="38"/>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1">
+      <c r="A175" s="12"/>
+      <c r="B175" s="12">
         <v>830011</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="38"/>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1">
+      <c r="A176" s="12"/>
+      <c r="B176" s="12">
         <v>830012</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="38"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1">
+      <c r="A177" s="12"/>
+      <c r="B177" s="12">
         <v>832000</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E177" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-    </row>
-    <row r="178" ht="28" spans="1:7">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1">
+      <c r="F177" s="12"/>
+      <c r="G177" s="38"/>
+    </row>
+    <row r="178" ht="27" spans="1:7">
+      <c r="A178" s="12"/>
+      <c r="B178" s="12">
         <v>832001</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" ht="28" spans="1:7">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1">
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="38"/>
+    </row>
+    <row r="179" ht="27" spans="1:7">
+      <c r="A179" s="12"/>
+      <c r="B179" s="12">
         <v>832002</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-    </row>
-    <row r="180" ht="28" spans="1:7">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1">
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="38"/>
+    </row>
+    <row r="180" ht="27" spans="1:7">
+      <c r="A180" s="12"/>
+      <c r="B180" s="12">
         <v>840000</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="E180" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F180" s="2" t="s">
+      <c r="F180" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G180" s="1"/>
-    </row>
-    <row r="181" ht="28" spans="1:7">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1">
+      <c r="G180" s="38"/>
+    </row>
+    <row r="181" ht="27" spans="1:7">
+      <c r="A181" s="12"/>
+      <c r="B181" s="12">
         <v>840001</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1" t="s">
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="G181" s="1"/>
-    </row>
-    <row r="182" ht="28" spans="1:7">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1">
+      <c r="G181" s="38"/>
+    </row>
+    <row r="182" ht="27" spans="1:7">
+      <c r="A182" s="12"/>
+      <c r="B182" s="12">
         <v>840002</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1" t="s">
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G182" s="1"/>
-    </row>
-    <row r="183" ht="42" spans="1:7">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1">
+      <c r="G182" s="38"/>
+    </row>
+    <row r="183" ht="40.5" spans="1:7">
+      <c r="A183" s="12"/>
+      <c r="B183" s="12">
         <v>850000</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="E183" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="F183" s="2" t="s">
+      <c r="F183" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="G183" s="1"/>
-    </row>
-    <row r="184" ht="28" spans="1:7">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1">
+      <c r="G183" s="38"/>
+    </row>
+    <row r="184" ht="27" spans="1:7">
+      <c r="A184" s="12"/>
+      <c r="B184" s="12">
         <v>850001</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-    </row>
-    <row r="185" ht="28" spans="1:7">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1">
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="38"/>
+    </row>
+    <row r="185" ht="27" spans="1:7">
+      <c r="A185" s="12"/>
+      <c r="B185" s="12">
         <v>850002</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-    </row>
-    <row r="186" ht="28" spans="1:7">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1">
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="38"/>
+    </row>
+    <row r="186" ht="27" spans="1:7">
+      <c r="A186" s="12"/>
+      <c r="B186" s="12">
         <v>850003</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" ht="42" spans="1:7">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1">
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="38"/>
+    </row>
+    <row r="187" ht="40.5" spans="1:7">
+      <c r="A187" s="12"/>
+      <c r="B187" s="12">
         <v>850004</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-    </row>
-    <row r="188" ht="28" spans="1:7">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1">
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="38"/>
+    </row>
+    <row r="188" ht="27" spans="1:7">
+      <c r="A188" s="12"/>
+      <c r="B188" s="12">
         <v>850005</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" ht="42" spans="1:7">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1">
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="38"/>
+    </row>
+    <row r="189" ht="40.5" spans="1:7">
+      <c r="A189" s="12"/>
+      <c r="B189" s="12">
         <v>850006</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-    </row>
-    <row r="190" ht="42" spans="1:7">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1">
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="38"/>
+    </row>
+    <row r="190" ht="40.5" spans="1:7">
+      <c r="A190" s="12"/>
+      <c r="B190" s="12">
         <v>850007</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-    </row>
-    <row r="191" ht="42" spans="1:7">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1">
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="38"/>
+    </row>
+    <row r="191" ht="40.5" spans="1:7">
+      <c r="A191" s="12"/>
+      <c r="B191" s="12">
         <v>850008</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-    </row>
-    <row r="192" ht="28" spans="1:7">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1">
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="38"/>
+    </row>
+    <row r="192" ht="27" spans="1:7">
+      <c r="A192" s="12"/>
+      <c r="B192" s="12">
         <v>850009</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-    </row>
-    <row r="193" ht="28" spans="1:7">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1">
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="38"/>
+    </row>
+    <row r="193" ht="27" spans="1:7">
+      <c r="A193" s="12"/>
+      <c r="B193" s="12">
         <v>850010</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-    </row>
-    <row r="194" ht="28" spans="1:7">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1">
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="38"/>
+    </row>
+    <row r="194" ht="27" spans="1:7">
+      <c r="A194" s="12"/>
+      <c r="B194" s="12">
         <v>850011</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="38"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1">
+      <c r="A195" s="12"/>
+      <c r="B195" s="12">
         <v>852000</v>
       </c>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="38"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1">
+      <c r="A196" s="12"/>
+      <c r="B196" s="12">
         <v>852001</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-    </row>
-    <row r="197" ht="28" spans="1:7">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1">
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="38"/>
+    </row>
+    <row r="197" ht="27" spans="1:7">
+      <c r="A197" s="12"/>
+      <c r="B197" s="12">
         <v>852002</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-    </row>
-    <row r="198" ht="28" spans="1:7">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1">
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="38"/>
+    </row>
+    <row r="198" ht="27" spans="1:7">
+      <c r="A198" s="12"/>
+      <c r="B198" s="12">
         <v>852003</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="38"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1">
+      <c r="A199" s="12"/>
+      <c r="B199" s="12">
         <v>852004</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-    </row>
-    <row r="200" ht="28" spans="1:7">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1">
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="38"/>
+    </row>
+    <row r="200" ht="27" spans="1:7">
+      <c r="A200" s="12"/>
+      <c r="B200" s="12">
         <v>852005</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="38"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1">
+      <c r="A201" s="12"/>
+      <c r="B201" s="12">
         <v>852006</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-    </row>
-    <row r="202" ht="28" spans="1:7">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1">
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="38"/>
+    </row>
+    <row r="202" ht="27" spans="1:7">
+      <c r="A202" s="12"/>
+      <c r="B202" s="12">
         <v>852007</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-    </row>
-    <row r="203" ht="28" spans="1:7">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1">
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="38"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="12"/>
+      <c r="B203" s="12">
         <v>852008</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-    </row>
-    <row r="204" ht="28" spans="1:7">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1">
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="38"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="12"/>
+      <c r="B204" s="12">
         <v>852009</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-    </row>
-    <row r="205" ht="28" spans="1:7">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1">
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="38"/>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="12"/>
+      <c r="B205" s="12">
         <v>852010</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-    </row>
-    <row r="206" ht="28" spans="1:7">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1">
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="38"/>
+    </row>
+    <row r="206" ht="27" spans="1:7">
+      <c r="A206" s="12"/>
+      <c r="B206" s="12">
         <v>852011</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="38"/>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1">
+      <c r="A207" s="12"/>
+      <c r="B207" s="12">
         <v>852012</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-    </row>
-    <row r="208" ht="42" spans="1:7">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1">
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="38"/>
+    </row>
+    <row r="208" ht="27" spans="1:7">
+      <c r="A208" s="12"/>
+      <c r="B208" s="12">
         <v>852013</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="38"/>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1">
+      <c r="A209" s="12"/>
+      <c r="B209" s="12">
         <v>852014</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="38"/>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1">
+      <c r="A210" s="12"/>
+      <c r="B210" s="12">
         <v>852015</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-    </row>
-    <row r="211" ht="28" spans="1:7">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1">
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="38"/>
+    </row>
+    <row r="211" ht="27" spans="1:7">
+      <c r="A211" s="12"/>
+      <c r="B211" s="12">
         <v>852016</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="38"/>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1">
+      <c r="A212" s="12"/>
+      <c r="B212" s="12">
         <v>852017</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="38"/>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1">
+      <c r="A213" s="12"/>
+      <c r="B213" s="12">
         <v>852018</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C213" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="38"/>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1">
+      <c r="A214" s="12"/>
+      <c r="B214" s="12">
         <v>852019</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-    </row>
-    <row r="215" ht="28" spans="1:7">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1">
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="38"/>
+    </row>
+    <row r="215" ht="27" spans="1:7">
+      <c r="A215" s="12"/>
+      <c r="B215" s="12">
         <v>852020</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="38"/>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1">
+      <c r="A216" s="12"/>
+      <c r="B216" s="12">
         <v>852021</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="38"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1">
+      <c r="A217" s="12"/>
+      <c r="B217" s="12">
         <v>852022</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-    </row>
-    <row r="218" ht="28" spans="1:7">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1">
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12"/>
+      <c r="G217" s="38"/>
+    </row>
+    <row r="218" ht="27" spans="1:7">
+      <c r="A218" s="12"/>
+      <c r="B218" s="12">
         <v>852023</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="38"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1">
+      <c r="A219" s="12"/>
+      <c r="B219" s="12">
         <v>852024</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="38"/>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1">
+      <c r="A220" s="12"/>
+      <c r="B220" s="12">
         <v>852025</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="38"/>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1">
+      <c r="A221" s="12"/>
+      <c r="B221" s="12">
         <v>852026</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="38"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1">
+      <c r="A222" s="12"/>
+      <c r="B222" s="12">
         <v>852027</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="38"/>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1">
+      <c r="A223" s="12"/>
+      <c r="B223" s="12">
         <v>852028</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-    </row>
-    <row r="224" ht="42" spans="1:7">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1">
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12"/>
+      <c r="G223" s="38"/>
+    </row>
+    <row r="224" ht="27" spans="1:7">
+      <c r="A224" s="12"/>
+      <c r="B224" s="12">
         <v>852029</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-    </row>
-    <row r="225" ht="28" spans="1:7">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1">
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12"/>
+      <c r="G224" s="38"/>
+    </row>
+    <row r="225" ht="27" spans="1:7">
+      <c r="A225" s="12"/>
+      <c r="B225" s="12">
         <v>852030</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="38"/>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1">
+      <c r="A226" s="12"/>
+      <c r="B226" s="12">
         <v>852031</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="38"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1">
+      <c r="A227" s="12"/>
+      <c r="B227" s="12">
         <v>852032</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="38"/>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1">
+      <c r="A228" s="12"/>
+      <c r="B228" s="12">
         <v>852033</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12"/>
+      <c r="G228" s="38"/>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1">
+      <c r="A229" s="12"/>
+      <c r="B229" s="12">
         <v>852034</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-    </row>
-    <row r="230" ht="28" spans="1:7">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1">
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="38"/>
+    </row>
+    <row r="230" ht="27" spans="1:7">
+      <c r="A230" s="12"/>
+      <c r="B230" s="12">
         <v>852035</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="38"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1">
+      <c r="A231" s="12"/>
+      <c r="B231" s="12">
         <v>852036</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-    </row>
-    <row r="232" ht="28" spans="1:7">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1">
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="38"/>
+    </row>
+    <row r="232" ht="27" spans="1:7">
+      <c r="A232" s="12"/>
+      <c r="B232" s="12">
         <v>852037</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-    </row>
-    <row r="233" ht="28" spans="1:7">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1">
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="38"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="12"/>
+      <c r="B233" s="12">
         <v>852038</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-    </row>
-    <row r="234" ht="56" spans="1:7">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1">
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12"/>
+      <c r="G233" s="38"/>
+    </row>
+    <row r="234" ht="40.5" spans="1:7">
+      <c r="A234" s="12"/>
+      <c r="B234" s="12">
         <v>852039</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="12"/>
+      <c r="G234" s="38"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1">
+      <c r="A235" s="12"/>
+      <c r="B235" s="12">
         <v>852040</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-    </row>
-    <row r="236" ht="42" spans="1:7">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1">
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+      <c r="G235" s="38"/>
+    </row>
+    <row r="236" ht="27" spans="1:7">
+      <c r="A236" s="12"/>
+      <c r="B236" s="12">
         <v>852041</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12"/>
+      <c r="G236" s="38"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1">
+      <c r="A237" s="12"/>
+      <c r="B237" s="12">
         <v>852042</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
+      <c r="F237" s="12"/>
+      <c r="G237" s="38"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1">
+      <c r="A238" s="12"/>
+      <c r="B238" s="12">
         <v>852043</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-    </row>
-    <row r="239" ht="28" spans="1:7">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1">
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12"/>
+      <c r="G238" s="38"/>
+    </row>
+    <row r="239" ht="27" spans="1:7">
+      <c r="A239" s="12"/>
+      <c r="B239" s="12">
         <v>852044</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12"/>
+      <c r="G239" s="38"/>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1">
+      <c r="A240" s="12"/>
+      <c r="B240" s="12">
         <v>852045</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
-    </row>
-    <row r="241" ht="42" spans="1:7">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1">
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12"/>
+      <c r="G240" s="38"/>
+    </row>
+    <row r="241" ht="40.5" spans="1:7">
+      <c r="A241" s="12"/>
+      <c r="B241" s="12">
         <v>860000</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="E241" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="F241" s="2" t="s">
+      <c r="F241" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="G241" s="1"/>
+      <c r="G241" s="38"/>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1">
+      <c r="A242" s="12"/>
+      <c r="B242" s="12">
         <v>860001</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="12"/>
+      <c r="F242" s="12"/>
+      <c r="G242" s="38"/>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1">
+      <c r="A243" s="12"/>
+      <c r="B243" s="12">
         <v>860002</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="38"/>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1">
+      <c r="A244" s="12"/>
+      <c r="B244" s="12">
         <v>860003</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12"/>
+      <c r="G244" s="38"/>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1">
+      <c r="A245" s="12"/>
+      <c r="B245" s="12">
         <v>860004</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="12"/>
+      <c r="F245" s="12"/>
+      <c r="G245" s="38"/>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1">
+      <c r="A246" s="12"/>
+      <c r="B246" s="12">
         <v>860005</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C246" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
-      <c r="G246" s="1"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
+      <c r="F246" s="12"/>
+      <c r="G246" s="38"/>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1">
+      <c r="A247" s="12"/>
+      <c r="B247" s="12">
         <v>860006</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C247" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
+      <c r="F247" s="12"/>
+      <c r="G247" s="38"/>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1">
+      <c r="A248" s="12"/>
+      <c r="B248" s="12">
         <v>860007</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C248" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
+      <c r="F248" s="12"/>
+      <c r="G248" s="38"/>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1">
+      <c r="A249" s="12"/>
+      <c r="B249" s="12">
         <v>860008</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
+      <c r="F249" s="12"/>
+      <c r="G249" s="38"/>
     </row>
     <row r="250" spans="1:7">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1">
+      <c r="A250" s="12"/>
+      <c r="B250" s="12">
         <v>860009</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
+      <c r="F250" s="12"/>
+      <c r="G250" s="38"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1">
+      <c r="A251" s="12"/>
+      <c r="B251" s="12">
         <v>865000</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D251" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E251" s="2" t="s">
+      <c r="E251" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F251" s="1" t="s">
+      <c r="F251" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="G251" s="1"/>
+      <c r="G251" s="38"/>
     </row>
     <row r="252" spans="1:6">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1">
+      <c r="A252" s="12"/>
+      <c r="B252" s="12">
         <v>865001</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C252" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="12"/>
+      <c r="F252" s="12"/>
     </row>
     <row r="253" spans="1:6">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1">
+      <c r="A253" s="12"/>
+      <c r="B253" s="12">
         <v>865002</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C253" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="12"/>
+      <c r="F253" s="12"/>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1">
+      <c r="A254" s="12"/>
+      <c r="B254" s="12">
         <v>865003</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C254" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
+      <c r="F254" s="12"/>
     </row>
     <row r="255" spans="1:6">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
+      <c r="A255" s="12"/>
+      <c r="B255" s="12"/>
+      <c r="C255" s="12"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="12"/>
+      <c r="F255" s="12"/>
     </row>
     <row r="256" spans="1:6">
-      <c r="A256" s="1"/>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
+      <c r="A256" s="12"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
+      <c r="F256" s="12"/>
     </row>
     <row r="257" spans="1:6">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
+      <c r="A257" s="12"/>
+      <c r="B257" s="12"/>
+      <c r="C257" s="12"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
+      <c r="F257" s="12"/>
     </row>
     <row r="258" spans="1:6">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
+      <c r="A258" s="12"/>
+      <c r="B258" s="12"/>
+      <c r="C258" s="12"/>
+      <c r="D258" s="12"/>
+      <c r="E258" s="12"/>
+      <c r="F258" s="12"/>
     </row>
     <row r="259" spans="1:6">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
+      <c r="A259" s="12"/>
+      <c r="B259" s="12"/>
+      <c r="C259" s="12"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="12"/>
+      <c r="F259" s="12"/>
     </row>
     <row r="260" spans="1:6">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
+      <c r="A260" s="12"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12"/>
+      <c r="F260" s="12"/>
     </row>
     <row r="261" spans="1:6">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
+      <c r="A261" s="12"/>
+      <c r="B261" s="12"/>
+      <c r="C261" s="12"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
+      <c r="F261" s="12"/>
     </row>
     <row r="262" spans="1:6">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
+      <c r="A262" s="12"/>
+      <c r="B262" s="12"/>
+      <c r="C262" s="12"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="12"/>
+      <c r="F262" s="12"/>
     </row>
     <row r="263" spans="1:6">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
-      <c r="F263" s="1"/>
+      <c r="A263" s="12"/>
+      <c r="B263" s="12"/>
+      <c r="C263" s="12"/>
+      <c r="D263" s="12"/>
+      <c r="E263" s="12"/>
+      <c r="F263" s="12"/>
     </row>
     <row r="264" spans="1:6">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
+      <c r="A264" s="12"/>
+      <c r="B264" s="12"/>
+      <c r="C264" s="12"/>
+      <c r="D264" s="12"/>
+      <c r="E264" s="12"/>
+      <c r="F264" s="12"/>
     </row>
     <row r="265" spans="1:6">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
-      <c r="E265" s="1"/>
-      <c r="F265" s="1"/>
+      <c r="A265" s="12"/>
+      <c r="B265" s="12"/>
+      <c r="C265" s="12"/>
+      <c r="D265" s="12"/>
+      <c r="E265" s="12"/>
+      <c r="F265" s="12"/>
     </row>
     <row r="266" spans="1:6">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
-      <c r="F266" s="1"/>
+      <c r="A266" s="12"/>
+      <c r="B266" s="12"/>
+      <c r="C266" s="12"/>
+      <c r="D266" s="12"/>
+      <c r="E266" s="12"/>
+      <c r="F266" s="12"/>
     </row>
     <row r="267" spans="1:6">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
-      <c r="D267" s="1"/>
-      <c r="E267" s="1"/>
-      <c r="F267" s="1"/>
+      <c r="A267" s="12"/>
+      <c r="B267" s="12"/>
+      <c r="C267" s="12"/>
+      <c r="D267" s="12"/>
+      <c r="E267" s="12"/>
+      <c r="F267" s="12"/>
     </row>
     <row r="268" spans="1:6">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
-      <c r="E268" s="1"/>
-      <c r="F268" s="1"/>
+      <c r="A268" s="12"/>
+      <c r="B268" s="12"/>
+      <c r="C268" s="12"/>
+      <c r="D268" s="12"/>
+      <c r="E268" s="12"/>
+      <c r="F268" s="12"/>
     </row>
     <row r="269" spans="1:6">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
+      <c r="A269" s="12"/>
+      <c r="B269" s="12"/>
+      <c r="C269" s="12"/>
+      <c r="D269" s="12"/>
+      <c r="E269" s="12"/>
+      <c r="F269" s="12"/>
     </row>
     <row r="270" spans="1:6">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
-      <c r="F270" s="1"/>
+      <c r="A270" s="12"/>
+      <c r="B270" s="12"/>
+      <c r="C270" s="12"/>
+      <c r="D270" s="12"/>
+      <c r="E270" s="12"/>
+      <c r="F270" s="12"/>
     </row>
   </sheetData>
   <sortState ref="B24:F40">

--- a/AAA-Luban-Excel/Datas/text_Translate.xlsx
+++ b/AAA-Luban-Excel/Datas/text_Translate.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FFAF51-CDC3-45EF-AD31-7DD98BF4C157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16935" windowHeight="12255"/>
+    <workbookView xWindow="5430" yWindow="1425" windowWidth="27975" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -608,39 +601,6 @@
 不满足条件865001-899999</t>
   </si>
   <si>
-    <t>E：捡起</t>
-  </si>
-  <si>
-    <t>E：举起</t>
-  </si>
-  <si>
-    <t>E：查看</t>
-  </si>
-  <si>
-    <t>E：点燃</t>
-  </si>
-  <si>
-    <t>E：现在几点了？</t>
-  </si>
-  <si>
-    <t>E：修缮</t>
-  </si>
-  <si>
-    <t>E：充电</t>
-  </si>
-  <si>
-    <t>E：放入篮球</t>
-  </si>
-  <si>
-    <t>E：打开</t>
-  </si>
-  <si>
-    <t>E：关闭</t>
-  </si>
-  <si>
-    <t>E：堵住</t>
-  </si>
-  <si>
     <t>不满足条件空</t>
   </si>
   <si>
@@ -657,23 +617,50 @@
   </si>
   <si>
     <t>可以放入篮球的车</t>
+  </si>
+  <si>
+    <t>F：举起</t>
+  </si>
+  <si>
+    <t>F：查看</t>
+  </si>
+  <si>
+    <t>F：点燃</t>
+  </si>
+  <si>
+    <t>F：现在几点了？</t>
+  </si>
+  <si>
+    <t>F：修缮</t>
+  </si>
+  <si>
+    <t>F：充电</t>
+  </si>
+  <si>
+    <t>F：放入篮球</t>
+  </si>
+  <si>
+    <t>F：打开</t>
+  </si>
+  <si>
+    <t>F：关闭</t>
+  </si>
+  <si>
+    <t>F：堵住</t>
+  </si>
+  <si>
+    <t>F：交互</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -681,7 +668,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -691,152 +678,8 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,194 +692,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1044,255 +701,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1332,90 +747,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1426,7 +913,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1454,154 +941,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1851,24 +1224,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G290"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="E262" sqref="E262"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="C265" sqref="C265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="33.575" customWidth="1"/>
-    <col min="4" max="4" width="31.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="43.3666666666667" customWidth="1"/>
-    <col min="6" max="6" width="39.5416666666667" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1943,7 +1316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="67.5" spans="1:6">
+    <row r="5" spans="1:6" ht="75">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>700000</v>
@@ -2033,7 +1406,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" ht="16.5" spans="1:6">
+    <row r="12" spans="1:6" ht="16.5">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>702003</v>
@@ -2045,7 +1418,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" ht="16.5" spans="1:6">
+    <row r="13" spans="1:6" ht="16.5">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>702004</v>
@@ -2057,7 +1430,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" ht="16.5" spans="1:6">
+    <row r="14" spans="1:6" ht="16.5">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>702005</v>
@@ -2069,7 +1442,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" ht="16.5" spans="1:6">
+    <row r="15" spans="1:6" ht="16.5">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>702006</v>
@@ -2081,7 +1454,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" ht="16.5" spans="1:6">
+    <row r="16" spans="1:6" ht="16.5">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>702007</v>
@@ -2093,7 +1466,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" ht="16.5" spans="1:6">
+    <row r="17" spans="1:6" ht="16.5">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>702008</v>
@@ -2105,7 +1478,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" ht="16.5" spans="1:6">
+    <row r="18" spans="1:6" ht="16.5">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>702009</v>
@@ -2117,7 +1490,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" ht="16.5" spans="1:6">
+    <row r="19" spans="1:6" ht="16.5">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>702010</v>
@@ -2129,7 +1502,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" ht="16.5" spans="1:6">
+    <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>702011</v>
@@ -2141,7 +1514,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" ht="16.5" spans="1:6">
+    <row r="21" spans="1:6" ht="16.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>702012</v>
@@ -2153,7 +1526,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="16.5">
       <c r="A22" s="7"/>
       <c r="B22" s="2">
         <v>702013</v>
@@ -2165,7 +1538,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="16.5">
       <c r="A23" s="7"/>
       <c r="B23" s="2">
         <v>702014</v>
@@ -2177,7 +1550,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="7"/>
       <c r="B24" s="2">
         <v>702015</v>
@@ -2189,7 +1562,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:6">
+    <row r="25" spans="1:6" s="1" customFormat="1">
       <c r="A25" s="7"/>
       <c r="B25" s="11"/>
       <c r="C25" s="10"/>
@@ -2197,7 +1570,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:6">
+    <row r="26" spans="1:6" s="1" customFormat="1">
       <c r="A26" s="7"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
@@ -2205,7 +1578,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:6">
+    <row r="27" spans="1:6" s="1" customFormat="1">
       <c r="A27" s="7"/>
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
@@ -2213,7 +1586,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:6">
+    <row r="28" spans="1:6" s="1" customFormat="1">
       <c r="A28" s="7"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
@@ -2221,7 +1594,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:6">
+    <row r="29" spans="1:6" s="1" customFormat="1">
       <c r="A29" s="7"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
@@ -2229,7 +1602,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:6">
+    <row r="30" spans="1:6" s="1" customFormat="1">
       <c r="A30" s="7"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
@@ -2237,7 +1610,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:6">
+    <row r="31" spans="1:6" s="1" customFormat="1">
       <c r="A31" s="7"/>
       <c r="B31" s="11"/>
       <c r="C31" s="10"/>
@@ -2523,7 +1896,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" ht="40.5" spans="1:6">
+    <row r="54" spans="1:6" ht="60">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
         <v>730000</v>
@@ -2727,7 +2100,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" ht="27" spans="1:6">
+    <row r="70" spans="1:6" ht="30">
       <c r="A70" s="2"/>
       <c r="B70" s="2">
         <v>740000</v>
@@ -2745,7 +2118,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" ht="74" customHeight="1" spans="1:6">
+    <row r="71" spans="1:6" ht="74.099999999999994" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2">
         <v>740001</v>
@@ -2757,7 +2130,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" ht="74" customHeight="1" spans="1:6">
+    <row r="72" spans="1:6" ht="74.099999999999994" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2">
         <v>740002</v>
@@ -2769,7 +2142,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" ht="74" customHeight="1" spans="1:6">
+    <row r="73" spans="1:6" ht="74.099999999999994" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2">
         <v>750000</v>
@@ -3453,7 +2826,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:7">
       <c r="A129" s="2"/>
       <c r="B129" s="2">
         <v>752044</v>
@@ -3465,7 +2838,7 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:7">
       <c r="A130" s="2"/>
       <c r="B130" s="2">
         <v>752045</v>
@@ -3477,7 +2850,7 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:7">
       <c r="A131" s="2"/>
       <c r="B131" s="2">
         <v>752046</v>
@@ -3487,7 +2860,7 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:7">
       <c r="A132" s="2"/>
       <c r="B132" s="2">
         <v>760000</v>
@@ -3505,7 +2878,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:7">
       <c r="A133" s="2"/>
       <c r="B133" s="2">
         <v>760001</v>
@@ -3515,7 +2888,7 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" ht="67.5" spans="1:7">
+    <row r="134" spans="1:7" ht="75">
       <c r="A134" s="2"/>
       <c r="B134" s="2">
         <v>800000</v>
@@ -3534,7 +2907,7 @@
       </c>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" ht="54" spans="1:6">
+    <row r="135" spans="1:7" ht="45">
       <c r="A135" s="2"/>
       <c r="B135" s="2">
         <v>800001</v>
@@ -3550,7 +2923,7 @@
       </c>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:7">
       <c r="A136" s="2"/>
       <c r="B136" s="2">
         <v>800002</v>
@@ -3560,7 +2933,7 @@
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:7">
       <c r="A137" s="2"/>
       <c r="B137" s="2">
         <v>800003</v>
@@ -3570,7 +2943,7 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:7">
       <c r="A138" s="2"/>
       <c r="B138" s="2">
         <v>802000</v>
@@ -3588,7 +2961,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:7">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3596,7 +2969,7 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:7">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3604,7 +2977,7 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:7">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3612,7 +2985,7 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:7">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3620,7 +2993,7 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:7">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3628,7 +3001,7 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:7">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3702,7 +3075,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="152" ht="67.5" spans="1:6">
+    <row r="152" spans="1:6" ht="90">
       <c r="A152" s="2"/>
       <c r="B152" s="2">
         <v>804001</v>
@@ -3714,7 +3087,7 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" ht="94.5" spans="1:6">
+    <row r="153" spans="1:6" ht="150">
       <c r="A153" s="2"/>
       <c r="B153" s="2">
         <v>804002</v>
@@ -3726,7 +3099,7 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" ht="81" spans="1:6">
+    <row r="154" spans="1:6" ht="105">
       <c r="A154" s="2"/>
       <c r="B154" s="2">
         <v>804003</v>
@@ -3740,7 +3113,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" ht="30">
       <c r="A155" s="2"/>
       <c r="B155" s="2">
         <v>804004</v>
@@ -3752,7 +3125,7 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" ht="27" spans="1:6">
+    <row r="156" spans="1:6" ht="30">
       <c r="A156" s="2"/>
       <c r="B156" s="2">
         <v>804005</v>
@@ -3766,7 +3139,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="157" ht="27" spans="1:6">
+    <row r="157" spans="1:6" ht="45">
       <c r="A157" s="2"/>
       <c r="B157" s="2">
         <v>804006</v>
@@ -3818,7 +3191,7 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:7">
       <c r="A161" s="2"/>
       <c r="B161" s="2">
         <v>806003</v>
@@ -3828,7 +3201,7 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:7">
       <c r="A162" s="2"/>
       <c r="B162" s="2">
         <v>806004</v>
@@ -3838,7 +3211,7 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:7">
       <c r="A163" s="2"/>
       <c r="B163" s="2">
         <v>806005</v>
@@ -3848,7 +3221,7 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:7">
       <c r="A164" s="2"/>
       <c r="B164" s="2">
         <v>806006</v>
@@ -3858,7 +3231,7 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:7">
       <c r="A165" s="2"/>
       <c r="B165" s="2">
         <v>810000</v>
@@ -3876,7 +3249,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:7">
       <c r="A166" s="2"/>
       <c r="B166" s="2">
         <v>810001</v>
@@ -3886,7 +3259,7 @@
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:7">
       <c r="A167" s="2"/>
       <c r="B167" s="2">
         <f>710002+100000</f>
@@ -3897,7 +3270,7 @@
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:7">
       <c r="A168" s="2"/>
       <c r="B168" s="2">
         <f>100000+710003</f>
@@ -3908,7 +3281,7 @@
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:7">
       <c r="A169" s="2"/>
       <c r="B169" s="2">
         <v>810004</v>
@@ -3918,7 +3291,7 @@
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:7">
       <c r="A170" s="2"/>
       <c r="B170" s="2">
         <v>810005</v>
@@ -3928,7 +3301,7 @@
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:7">
       <c r="A171" s="2"/>
       <c r="B171" s="2">
         <v>810006</v>
@@ -3968,7 +3341,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" ht="40.5" spans="1:7">
+    <row r="174" spans="1:7" ht="60">
       <c r="A174" s="2"/>
       <c r="B174" s="2">
         <v>830000</v>
@@ -4015,7 +3388,7 @@
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" ht="27" spans="1:7">
+    <row r="177" spans="1:7" ht="30">
       <c r="A177" s="2"/>
       <c r="B177" s="2">
         <v>830003</v>
@@ -4028,7 +3401,7 @@
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" ht="27" spans="1:7">
+    <row r="178" spans="1:7" ht="30">
       <c r="A178" s="2"/>
       <c r="B178" s="2">
         <v>830004</v>
@@ -4041,7 +3414,7 @@
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" ht="27" spans="1:7">
+    <row r="179" spans="1:7" ht="30">
       <c r="A179" s="2"/>
       <c r="B179" s="2">
         <v>830005</v>
@@ -4069,7 +3442,7 @@
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" ht="27" spans="1:7">
+    <row r="181" spans="1:7" ht="45">
       <c r="A181" s="2"/>
       <c r="B181" s="2">
         <v>830007</v>
@@ -4082,7 +3455,7 @@
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" ht="27" spans="1:7">
+    <row r="182" spans="1:7" ht="30">
       <c r="A182" s="2"/>
       <c r="B182" s="2">
         <v>830008</v>
@@ -4168,7 +3541,7 @@
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
     </row>
-    <row r="188" ht="27" spans="1:7">
+    <row r="188" spans="1:7" ht="30">
       <c r="A188" s="2"/>
       <c r="B188" s="2">
         <v>832001</v>
@@ -4181,7 +3554,7 @@
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
     </row>
-    <row r="189" ht="27" spans="1:7">
+    <row r="189" spans="1:7" ht="30">
       <c r="A189" s="2"/>
       <c r="B189" s="2">
         <v>832002</v>
@@ -4194,7 +3567,7 @@
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" ht="27" spans="1:7">
+    <row r="190" spans="1:7" ht="30">
       <c r="A190" s="2"/>
       <c r="B190" s="2">
         <v>840000</v>
@@ -4213,7 +3586,7 @@
       </c>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" ht="27" spans="1:7">
+    <row r="191" spans="1:7" ht="45">
       <c r="A191" s="2"/>
       <c r="B191" s="2">
         <v>840001</v>
@@ -4228,7 +3601,7 @@
       </c>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" ht="27" spans="1:7">
+    <row r="192" spans="1:7" ht="45">
       <c r="A192" s="2"/>
       <c r="B192" s="2">
         <v>840002</v>
@@ -4243,7 +3616,7 @@
       </c>
       <c r="G192" s="2"/>
     </row>
-    <row r="193" ht="40.5" spans="1:7">
+    <row r="193" spans="1:7" ht="45">
       <c r="A193" s="2"/>
       <c r="B193" s="2">
         <v>850000</v>
@@ -4262,7 +3635,7 @@
       </c>
       <c r="G193" s="2"/>
     </row>
-    <row r="194" ht="27" spans="1:7">
+    <row r="194" spans="1:7" ht="45">
       <c r="A194" s="2"/>
       <c r="B194" s="2">
         <v>850001</v>
@@ -4275,7 +3648,7 @@
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
     </row>
-    <row r="195" ht="27" spans="1:7">
+    <row r="195" spans="1:7" ht="30">
       <c r="A195" s="2"/>
       <c r="B195" s="2">
         <v>850002</v>
@@ -4288,7 +3661,7 @@
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
     </row>
-    <row r="196" ht="27" spans="1:7">
+    <row r="196" spans="1:7" ht="45">
       <c r="A196" s="2"/>
       <c r="B196" s="2">
         <v>850003</v>
@@ -4301,7 +3674,7 @@
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
     </row>
-    <row r="197" ht="40.5" spans="1:7">
+    <row r="197" spans="1:7" ht="45">
       <c r="A197" s="2"/>
       <c r="B197" s="2">
         <v>850004</v>
@@ -4314,7 +3687,7 @@
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
     </row>
-    <row r="198" ht="27" spans="1:7">
+    <row r="198" spans="1:7" ht="45">
       <c r="A198" s="2"/>
       <c r="B198" s="2">
         <v>850005</v>
@@ -4327,7 +3700,7 @@
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
     </row>
-    <row r="199" ht="40.5" spans="1:7">
+    <row r="199" spans="1:7" ht="60">
       <c r="A199" s="2"/>
       <c r="B199" s="2">
         <v>850006</v>
@@ -4340,7 +3713,7 @@
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
     </row>
-    <row r="200" ht="40.5" spans="1:7">
+    <row r="200" spans="1:7" ht="60">
       <c r="A200" s="2"/>
       <c r="B200" s="2">
         <v>850007</v>
@@ -4353,7 +3726,7 @@
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
     </row>
-    <row r="201" ht="40.5" spans="1:7">
+    <row r="201" spans="1:7" ht="45">
       <c r="A201" s="2"/>
       <c r="B201" s="2">
         <v>850008</v>
@@ -4366,7 +3739,7 @@
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
     </row>
-    <row r="202" ht="27" spans="1:7">
+    <row r="202" spans="1:7" ht="30">
       <c r="A202" s="2"/>
       <c r="B202" s="2">
         <v>850009</v>
@@ -4379,7 +3752,7 @@
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
     </row>
-    <row r="203" ht="27" spans="1:7">
+    <row r="203" spans="1:7" ht="30">
       <c r="A203" s="2"/>
       <c r="B203" s="2">
         <v>850010</v>
@@ -4392,7 +3765,7 @@
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
     </row>
-    <row r="204" ht="27" spans="1:7">
+    <row r="204" spans="1:7" ht="30">
       <c r="A204" s="2"/>
       <c r="B204" s="2">
         <v>850011</v>
@@ -4911,7 +4284,7 @@
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
     </row>
-    <row r="251" ht="40.5" spans="1:7">
+    <row r="251" spans="1:7" ht="45">
       <c r="A251" s="2"/>
       <c r="B251" s="2">
         <v>860000</v>
@@ -4936,7 +4309,7 @@
         <v>860001</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -4949,7 +4322,7 @@
         <v>860002</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -4962,7 +4335,7 @@
         <v>860003</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -4975,7 +4348,7 @@
         <v>860004</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -4988,7 +4361,7 @@
         <v>860005</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -5001,7 +4374,7 @@
         <v>860006</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -5014,7 +4387,7 @@
         <v>860007</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -5027,7 +4400,7 @@
         <v>860008</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -5040,7 +4413,7 @@
         <v>860009</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -5053,7 +4426,7 @@
         <v>860010</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -5066,7 +4439,7 @@
         <v>860011</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -5079,21 +4452,12 @@
         <v>860012</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="3"/>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="2"/>
@@ -5122,14 +4486,14 @@
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
     </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="3"/>
-      <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
+    <row r="268" spans="1:7" s="1" customFormat="1">
+      <c r="A268" s="11"/>
+      <c r="B268" s="11"/>
+      <c r="C268" s="9"/>
+      <c r="D268" s="9"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="11"/>
+      <c r="G268" s="11"/>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="2"/>
@@ -5151,100 +4515,102 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="2"/>
-      <c r="B271" s="2">
+      <c r="B271" s="2"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+    </row>
+    <row r="273" spans="1:7" s="13" customFormat="1">
+      <c r="A273" s="4"/>
+      <c r="B273" s="4">
         <v>865000</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C273" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D273" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E271" s="3" t="s">
+      <c r="E273" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F271" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G271" s="2"/>
-    </row>
-    <row r="272" spans="1:6">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2">
-        <v>865001</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
-    </row>
-    <row r="273" spans="1:6">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2">
-        <v>865002</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
-    </row>
-    <row r="274" spans="1:6">
+      <c r="F273" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G273" s="4"/>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274" s="2"/>
       <c r="B274" s="2">
-        <v>865003</v>
+        <v>865001</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:7">
       <c r="A275" s="2"/>
       <c r="B275" s="2">
-        <v>865004</v>
+        <v>865002</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:7">
       <c r="A276" s="2"/>
       <c r="B276" s="2">
-        <v>865005</v>
-      </c>
-      <c r="C276" t="s">
-        <v>203</v>
+        <v>865003</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:7" ht="30">
       <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
+      <c r="B277" s="2">
+        <v>865004</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:7">
       <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
+      <c r="B278" s="2">
+        <v>865005</v>
+      </c>
+      <c r="C278" t="s">
+        <v>192</v>
+      </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:7">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -5252,7 +4618,7 @@
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:7">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -5260,7 +4626,7 @@
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:7">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -5268,7 +4634,7 @@
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:7">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -5276,7 +4642,7 @@
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:7">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -5284,7 +4650,7 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:7">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -5292,7 +4658,7 @@
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:7">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -5300,7 +4666,7 @@
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:7">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -5308,7 +4674,7 @@
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:7">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -5316,7 +4682,7 @@
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:7">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -5340,11 +4706,26 @@
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
     </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="2"/>
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+    </row>
   </sheetData>
-  <sortState ref="B24:F40">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B24:F40">
     <sortCondition ref="B38"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/text_Translate.xlsx
+++ b/AAA-Luban-Excel/Datas/text_Translate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FFAF51-CDC3-45EF-AD31-7DD98BF4C157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F0DDB4-F21F-4A43-BA3B-AB6EEE5D7B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="1425" windowWidth="27975" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="208">
   <si>
     <t>##var</t>
   </si>
@@ -650,6 +650,18 @@
   </si>
   <si>
     <t>F：交互</t>
+  </si>
+  <si>
+    <t>游戏提示</t>
+  </si>
+  <si>
+    <t>GameTips</t>
+  </si>
+  <si>
+    <t>篮球框已满</t>
+  </si>
+  <si>
+    <t>It's Full</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="C265" sqref="C265"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E283" sqref="E283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4644,17 +4656,29 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
+      <c r="B283" s="2">
+        <v>900000</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
+      <c r="B284" s="2">
+        <v>900001</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
     </row>
